--- a/biology/Botanique/Roystonea_oleracea/Roystonea_oleracea.xlsx
+++ b/biology/Botanique/Roystonea_oleracea/Roystonea_oleracea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier royal des Caraïbes
-Le palmier royal des Caraïbes ou palmiste franc [1], Roystonea oleracea, est une espèce de palmiers appartenant au genre Roystonea. 
+Le palmier royal des Caraïbes ou palmiste franc , Roystonea oleracea, est une espèce de palmiers appartenant au genre Roystonea. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand palmier peut atteindre une hauteur de 30 ou 40 mètres.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Colombie, Venezuela, Guyane, Panama, Petites Antilles.
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Areca oleracea Jacq. (basionyme)
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Areca oleracea Jacq. (basionyme)
 Euterpe caribaea Spreng.
 Gorgasia maxima O.F. Cook
 Gorgasia oleracea (Jacq.) O.F. Cook.
@@ -586,11 +607,7 @@
 Oreodoxa oleracea (Jacq.) Mart.
 Oreodoxa regia var. jenmanii Waby
 Roystonea caribaea (Spreng.) P. Wilson
-Roystonea venezuelana L.H. Bailey.
-Liste des variétés
-Selon Tropicos                                           (1 août 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
-variété Roystonea oleracea var. jenmanii (Waby) Zona
-variété Roystonea oleracea var. oleracea</t>
+Roystonea venezuelana L.H. Bailey.</t>
         </is>
       </c>
     </row>
@@ -615,13 +632,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 août 2013) (Attention liste brute contenant possiblement des synonymes) :
+variété Roystonea oleracea var. jenmanii (Waby) Zona
+variété Roystonea oleracea var. oleracea</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roystonea_oleracea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roystonea_oleracea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme le palmier royal Roystonea regia, il est planté comme arbre ornemental pour son port élégant et sa grande taille. La place des Palmistes au centre historique de Cayenne en Guyane est fameuse pour sa plantation de palmiers royaux des Caraïbes.
-Son bourgeon terminal peut être consommé comme chou-palmiste[1].
+Son bourgeon terminal peut être consommé comme chou-palmiste.
 </t>
         </is>
       </c>
